--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Affle India Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Affle India Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Quarterly Results of Affle India(in Rs. Cr.)</t>
   </si>
@@ -149,6 +149,81 @@
   </si>
   <si>
     <t>Sep '24</t>
+  </si>
+  <si>
+    <t>27.53</t>
+  </si>
+  <si>
+    <t>34.74</t>
+  </si>
+  <si>
+    <t>29.84</t>
+  </si>
+  <si>
+    <t>30.41</t>
+  </si>
+  <si>
+    <t>49.23</t>
+  </si>
+  <si>
+    <t>53.04</t>
+  </si>
+  <si>
+    <t>43.39</t>
+  </si>
+  <si>
+    <t>42.26</t>
+  </si>
+  <si>
+    <t>72.65</t>
+  </si>
+  <si>
+    <t>78.32</t>
+  </si>
+  <si>
+    <t>72.23</t>
+  </si>
+  <si>
+    <t>81.85</t>
+  </si>
+  <si>
+    <t>95.97</t>
+  </si>
+  <si>
+    <t>111.27</t>
+  </si>
+  <si>
+    <t>108.44</t>
+  </si>
+  <si>
+    <t>105.16</t>
+  </si>
+  <si>
+    <t>115.86</t>
+  </si>
+  <si>
+    <t>137.27</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>137.13</t>
+  </si>
+  <si>
+    <t>133.83</t>
+  </si>
+  <si>
+    <t>139.32</t>
+  </si>
+  <si>
+    <t>155.72</t>
+  </si>
+  <si>
+    <t>163.15</t>
+  </si>
+  <si>
+    <t>176.10</t>
   </si>
 </sst>
 </file>
@@ -578,8 +653,8 @@
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2">
-        <v>27.53</v>
+      <c r="B2" t="s">
+        <v>45</v>
       </c>
       <c r="C2">
         <v>27.53</v>
@@ -640,8 +715,8 @@
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3">
-        <v>34.74</v>
+      <c r="B3" t="s">
+        <v>46</v>
       </c>
       <c r="C3">
         <v>34.74</v>
@@ -702,8 +777,8 @@
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4">
-        <v>29.84</v>
+      <c r="B4" t="s">
+        <v>47</v>
       </c>
       <c r="C4">
         <v>29.84</v>
@@ -748,24 +823,24 @@
         <v>24.29</v>
       </c>
       <c r="Q4">
-        <v>2.364583333333333</v>
+        <v>2.36</v>
       </c>
       <c r="R4">
-        <v>2.364583333333333</v>
+        <v>2.36</v>
       </c>
       <c r="S4">
-        <v>2.356086956521739</v>
+        <v>2.36</v>
       </c>
       <c r="T4">
-        <v>2.364583333333333</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5">
-        <v>30.41</v>
+      <c r="B5" t="s">
+        <v>48</v>
       </c>
       <c r="C5">
         <v>30.41</v>
@@ -816,7 +891,7 @@
         <v>2.56</v>
       </c>
       <c r="S5">
-        <v>2.356086956521739</v>
+        <v>2.36</v>
       </c>
       <c r="T5">
         <v>2.56</v>
@@ -826,8 +901,8 @@
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6">
-        <v>49.23</v>
+      <c r="B6" t="s">
+        <v>49</v>
       </c>
       <c r="C6">
         <v>49.23</v>
@@ -888,8 +963,8 @@
       <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B7">
-        <v>53.04</v>
+      <c r="B7" t="s">
+        <v>50</v>
       </c>
       <c r="C7">
         <v>53.04</v>
@@ -950,8 +1025,8 @@
       <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B8">
-        <v>43.39</v>
+      <c r="B8" t="s">
+        <v>51</v>
       </c>
       <c r="C8">
         <v>44.7</v>
@@ -1012,8 +1087,8 @@
       <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B9">
-        <v>42.26</v>
+      <c r="B9" t="s">
+        <v>52</v>
       </c>
       <c r="C9">
         <v>42.26</v>
@@ -1074,8 +1149,8 @@
       <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B10">
-        <v>72.65000000000001</v>
+      <c r="B10" t="s">
+        <v>53</v>
       </c>
       <c r="C10">
         <v>72.65000000000001</v>
@@ -1136,8 +1211,8 @@
       <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B11">
-        <v>78.31999999999999</v>
+      <c r="B11" t="s">
+        <v>54</v>
       </c>
       <c r="C11">
         <v>78.31999999999999</v>
@@ -1198,8 +1273,8 @@
       <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B12">
-        <v>72.23</v>
+      <c r="B12" t="s">
+        <v>55</v>
       </c>
       <c r="C12">
         <v>72.23</v>
@@ -1260,8 +1335,8 @@
       <c r="A13" t="s">
         <v>31</v>
       </c>
-      <c r="B13">
-        <v>81.84999999999999</v>
+      <c r="B13" t="s">
+        <v>56</v>
       </c>
       <c r="C13">
         <v>81.84999999999999</v>
@@ -1322,8 +1397,8 @@
       <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B14">
-        <v>95.97</v>
+      <c r="B14" t="s">
+        <v>57</v>
       </c>
       <c r="C14">
         <v>95.97</v>
@@ -1384,8 +1459,8 @@
       <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="B15">
-        <v>111.27</v>
+      <c r="B15" t="s">
+        <v>58</v>
       </c>
       <c r="C15">
         <v>111.27</v>
@@ -1446,8 +1521,8 @@
       <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="B16">
-        <v>108.44</v>
+      <c r="B16" t="s">
+        <v>59</v>
       </c>
       <c r="C16">
         <v>108.44</v>
@@ -1508,8 +1583,8 @@
       <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="B17">
-        <v>105.16</v>
+      <c r="B17" t="s">
+        <v>60</v>
       </c>
       <c r="C17">
         <v>105.16</v>
@@ -1570,8 +1645,8 @@
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18">
-        <v>115.86</v>
+      <c r="B18" t="s">
+        <v>61</v>
       </c>
       <c r="C18">
         <v>115.86</v>
@@ -1632,8 +1707,8 @@
       <c r="A19" t="s">
         <v>37</v>
       </c>
-      <c r="B19">
-        <v>137.27</v>
+      <c r="B19" t="s">
+        <v>62</v>
       </c>
       <c r="C19">
         <v>137.27</v>
@@ -1694,8 +1769,8 @@
       <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="B20">
-        <v>136.5</v>
+      <c r="B20" t="s">
+        <v>63</v>
       </c>
       <c r="C20">
         <v>136.5</v>
@@ -1756,8 +1831,8 @@
       <c r="A21" t="s">
         <v>39</v>
       </c>
-      <c r="B21">
-        <v>137.13</v>
+      <c r="B21" t="s">
+        <v>64</v>
       </c>
       <c r="C21">
         <v>137.13</v>
@@ -1818,8 +1893,8 @@
       <c r="A22" t="s">
         <v>40</v>
       </c>
-      <c r="B22">
-        <v>133.83</v>
+      <c r="B22" t="s">
+        <v>65</v>
       </c>
       <c r="C22">
         <v>133.83</v>
@@ -1880,8 +1955,8 @@
       <c r="A23" t="s">
         <v>41</v>
       </c>
-      <c r="B23">
-        <v>139.32</v>
+      <c r="B23" t="s">
+        <v>66</v>
       </c>
       <c r="C23">
         <v>139.32</v>
@@ -1942,8 +2017,8 @@
       <c r="A24" t="s">
         <v>42</v>
       </c>
-      <c r="B24">
-        <v>155.72</v>
+      <c r="B24" t="s">
+        <v>67</v>
       </c>
       <c r="C24">
         <v>155.72</v>
@@ -2004,8 +2079,8 @@
       <c r="A25" t="s">
         <v>43</v>
       </c>
-      <c r="B25">
-        <v>163.15</v>
+      <c r="B25" t="s">
+        <v>68</v>
       </c>
       <c r="C25">
         <v>163.15</v>
@@ -2066,8 +2141,8 @@
       <c r="A26" t="s">
         <v>44</v>
       </c>
-      <c r="B26">
-        <v>176.1</v>
+      <c r="B26" t="s">
+        <v>69</v>
       </c>
       <c r="C26">
         <v>176.1</v>
